--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711091.622288403</v>
+        <v>1767312.48645697</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453902</v>
+        <v>5301029.811029743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178669</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7318009.01062914</v>
+        <v>7757340.085160553</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164.4824853003202</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>279.2853746626571</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>100.6427250977022</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -880,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>227.0672929610288</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>89.19088307610525</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>299.3892267387119</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>214.0262960167625</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1133,16 +1135,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>398.5565191228044</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>123.1859444429712</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>91.84417914186817</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059086</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1385,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>194.4767845019458</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>28.01490760909618</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.10801276316413</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1673,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,16 +1852,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="G17" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>128.6156879951413</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.41262563052153</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2092,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>320.6751611476632</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>58.8776823612798</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2318,10 +2320,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>363.9585094926619</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>292.2732044987391</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2479,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>113.6106513650505</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>269.9562877695847</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>108.9227613460767</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2773,13 +2775,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2855,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>351.080144279057</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2956,16 +2958,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>36.45020302297358</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3035,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3080,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3187,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.1442680954014</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3253,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3280,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>123.2715627317511</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -3323,7 +3325,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3424,16 +3426,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>118.675058326596</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>1.438471529177691</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V38" t="n">
-        <v>123.8394724344234</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3673,7 +3675,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>37.14022766411889</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>128.166594550656</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>8.924297638202884</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3898,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>137.8797272855248</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7.112804397545408</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3989,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>8.924297638202884</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>72.55946887449164</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.1210281068532</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.102363169264</v>
+        <v>448.2851735274151</v>
       </c>
       <c r="C2" t="n">
-        <v>1614.018176522938</v>
+        <v>442.2009868810892</v>
       </c>
       <c r="D2" t="n">
-        <v>1613.594650656403</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.254435173299</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F2" t="n">
-        <v>778.224023126987</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>369.4957390198192</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L2" t="n">
-        <v>850.932214224331</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>850.932214224331</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N2" t="n">
-        <v>1575.949329612604</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O2" t="n">
-        <v>2219.580186029709</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>2567.644429892003</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2888.805436687295</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2794.081007170961</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2537.020515430471</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>2187.182960766952</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>2187.182960766952</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X2" t="n">
-        <v>2187.182960766952</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y2" t="n">
-        <v>1786.246287715042</v>
+        <v>858.5063531919045</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>514.3934979128359</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>514.3934979128359</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.526080325524</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N3" t="n">
-        <v>1193.526080325524</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O3" t="n">
-        <v>1193.526080325524</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>1755.231972814054</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1567.213576830467</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>1567.213576830467</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>1567.213576830467</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>1567.213576830467</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>1567.213576830467</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>2742.970314256771</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>2641.310995976263</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>2358.512848522387</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>2084.627103461909</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1805.557438970783</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>1567.213576830467</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y4" t="n">
-        <v>1567.213576830467</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1393.201480237631</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>1303.109679150656</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>1302.686153284121</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>888.3459378010175</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>467.315525754705</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>237.5797538689247</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>950.1711536811628</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1675.188269069436</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>2400.205384457709</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>2400.205384457709</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2794.081007170961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2537.020515430471</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2187.182960766952</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1803.422659902121</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="X5" t="n">
-        <v>1803.422659902121</v>
+        <v>1785.840921137969</v>
       </c>
       <c r="Y5" t="n">
-        <v>1803.422659902121</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>514.3934979128359</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>514.3934979128359</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="N6" t="n">
-        <v>1239.410613301109</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O6" t="n">
-        <v>1543.370545009507</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>860.4816736147163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>860.4816736147163</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>700.9870289376263</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>540.0762138059458</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>375.4450879165371</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>208.1946968420806</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1541.803011918786</v>
       </c>
       <c r="S7" t="n">
-        <v>1502.713419943787</v>
+        <v>1355.411243798696</v>
       </c>
       <c r="T7" t="n">
-        <v>1502.713419943787</v>
+        <v>1115.862504775398</v>
       </c>
       <c r="U7" t="n">
-        <v>1502.713419943787</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V7" t="n">
-        <v>1502.713419943787</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W7" t="n">
-        <v>1286.525242149077</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X7" t="n">
-        <v>1048.181380008761</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>1048.181380008761</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>983.9629763010623</v>
+        <v>2231.056920380548</v>
       </c>
       <c r="C8" t="n">
-        <v>581.380633752775</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>580.9571078862396</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>570.6572964435403</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>553.6672884376319</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>596.7467427565767</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>1309.338142568815</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1309.338142568815</v>
+        <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>2034.355257957088</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>2677.986114374193</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>2929.36208237686</v>
+        <v>4176.456026456346</v>
       </c>
       <c r="V8" t="n">
-        <v>2579.524527713341</v>
+        <v>3826.618471792827</v>
       </c>
       <c r="W8" t="n">
-        <v>2195.764226848509</v>
+        <v>3442.858170927995</v>
       </c>
       <c r="X8" t="n">
-        <v>1795.120829017462</v>
+        <v>3042.214773096948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1394.184155965552</v>
+        <v>2641.278100045038</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>541.8239817326674</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="M9" t="n">
-        <v>839.4134544636129</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="N9" t="n">
-        <v>839.4134544636129</v>
+        <v>1202.912153651956</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>1570.801028829339</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>335.8441026748916</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="C10" t="n">
-        <v>335.8441026748916</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="D10" t="n">
-        <v>335.8441026748916</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="E10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1502.713419943787</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1409.941521820688</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1127.143374366812</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>853.2576293063339</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>574.1879648152083</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>335.8441026748916</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="Y10" t="n">
-        <v>335.8441026748916</v>
+        <v>86.01772546736876</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2110.07100402606</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C11" t="n">
-        <v>1699.94641333933</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D11" t="n">
-        <v>1699.94641333933</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E11" t="n">
-        <v>1285.606197856226</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F11" t="n">
-        <v>864.5757858099139</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G11" t="n">
-        <v>455.8475017027461</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H11" t="n">
-        <v>144.9390043304641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>596.7467427565767</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>596.7467427565767</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>991.0007669627659</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1716.017882351039</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2359.648738768144</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>2707.155598323719</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>2707.155598323719</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V11" t="n">
-        <v>2707.155598323719</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W11" t="n">
-        <v>2510.714401857107</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X11" t="n">
-        <v>2110.07100402606</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2110.07100402606</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.921091948674</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="C13" t="n">
-        <v>976.8277195103904</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="D13" t="n">
-        <v>817.3330748333003</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="E13" t="n">
-        <v>656.4222597016197</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="F13" t="n">
-        <v>491.791133812211</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>324.5407427377544</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T13" t="n">
-        <v>1587.986138268387</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U13" t="n">
-        <v>1587.986138268387</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V13" t="n">
-        <v>1587.986138268387</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.986138268387</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X13" t="n">
-        <v>1560.356496953953</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y13" t="n">
-        <v>1335.620798342718</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1696.244261831478</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1286.119671144748</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>881.6557412378083</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>467.315525754705</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>467.315525754705</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2221.212872236321</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2864.843728653426</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2890.869140191846</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>2890.869140191846</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>2890.869140191846</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>2890.869140191846</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>2507.108839327014</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>2106.465441495967</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>2106.465441495967</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>783.60435703581</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1147.921091948674</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.986138268387</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1587.986138268387</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1587.986138268387</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1587.986138268387</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.986138268387</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.986138268387</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X16" t="n">
-        <v>1560.356496953953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1335.620798342718</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5500,13 @@
         <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>354.5244442569915</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>354.5244442569915</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>354.5244442569915</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.182536368609</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>209.5897435862967</v>
+        <v>879.2884921858141</v>
       </c>
       <c r="C19" t="n">
-        <v>209.5897435862967</v>
+        <v>708.1951197475306</v>
       </c>
       <c r="D19" t="n">
-        <v>209.5897435862967</v>
+        <v>548.7004750704407</v>
       </c>
       <c r="E19" t="n">
-        <v>209.5897435862967</v>
+        <v>387.7896599387602</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5897435862967</v>
+        <v>223.1585340493514</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1523.235901755391</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.687162732093</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1000.889015278217</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V19" t="n">
-        <v>727.0032702177389</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W19" t="n">
-        <v>447.9336057266133</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X19" t="n">
-        <v>209.5897435862967</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y19" t="n">
-        <v>209.5897435862967</v>
+        <v>879.2884921858141</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2452.075282119331</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2041.950691432601</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1637.486761525662</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1223.146546042558</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5786,16 +5788,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3663.876532666778</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3263.23313483573</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2862.29646178382</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>592.7987223006619</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4222.119838211426</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
         <v>3132.785987910289</v>
@@ -5938,22 +5940,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>4602.712478105605</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>4319.914330651729</v>
       </c>
       <c r="V22" t="n">
-        <v>4662.18488453114</v>
+        <v>4046.028585591251</v>
       </c>
       <c r="W22" t="n">
-        <v>4662.18488453114</v>
+        <v>3766.958921100125</v>
       </c>
       <c r="X22" t="n">
-        <v>4634.555243216706</v>
+        <v>3528.615058959808</v>
       </c>
       <c r="Y22" t="n">
-        <v>4409.819544605471</v>
+        <v>3303.879360348573</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
         <v>1734.602869382415</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4275.762164384378</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>4275.762164384378</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>4275.762164384378</v>
       </c>
       <c r="W25" t="n">
-        <v>547.3402982826956</v>
+        <v>4275.762164384378</v>
       </c>
       <c r="X25" t="n">
-        <v>308.996436142379</v>
+        <v>4275.762164384378</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>4051.026465773143</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6217,10 @@
         <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6303,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>3569.537493614734</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>3410.042848937644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>3953.446229933875</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6758118380055</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="X28" t="n">
-        <v>275.6758118380055</v>
+        <v>3679.560484873397</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>3679.560484873397</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6503,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6548,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>423.0977207349383</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.074801429505</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1066.231502096085</v>
+        <v>460.6501016978888</v>
       </c>
       <c r="C31" t="n">
-        <v>895.138129657802</v>
+        <v>289.5567292596053</v>
       </c>
       <c r="D31" t="n">
-        <v>735.6434849807119</v>
+        <v>130.0620845825153</v>
       </c>
       <c r="E31" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X31" t="n">
-        <v>1478.666907101365</v>
+        <v>873.0855067031684</v>
       </c>
       <c r="Y31" t="n">
-        <v>1253.93120849013</v>
+        <v>648.3498080919331</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6728,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3717.522912482355</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>3717.522912482355</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>3717.522912482355</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3717.522912482355</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3552.891786592947</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3385.64139551849</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4422.636145507842</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4422.636145507842</v>
+        <v>1353.680646442718</v>
       </c>
       <c r="W34" t="n">
-        <v>4143.566481016716</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X34" t="n">
-        <v>3905.2226188764</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y34" t="n">
-        <v>3905.2226188764</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
         <v>93.2436976906228</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4537.668154499068</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4315.461670445927</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4058.401178705436</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1129.033635947823</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1129.033635947823</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1832.990726493717</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>971.8633271658769</v>
+        <v>3738.536254057871</v>
       </c>
       <c r="C37" t="n">
-        <v>971.8633271658769</v>
+        <v>3567.442881619587</v>
       </c>
       <c r="D37" t="n">
-        <v>851.989530876386</v>
+        <v>3567.442881619587</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>3567.442881619587</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="W37" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="X37" t="n">
-        <v>1384.298732171156</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="Y37" t="n">
-        <v>1159.563033559921</v>
+        <v>3926.235960451915</v>
       </c>
     </row>
     <row r="38">
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,13 +7201,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V38" t="n">
         <v>4144.752941388363</v>
@@ -7251,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>786.8890373059935</v>
+        <v>757.1294022244522</v>
       </c>
       <c r="C40" t="n">
-        <v>615.79566486771</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="D40" t="n">
-        <v>456.30102019062</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E40" t="n">
-        <v>295.3902050589395</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F40" t="n">
-        <v>130.7590791695308</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>1065.958701797119</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W40" t="n">
-        <v>786.8890373059935</v>
+        <v>1407.908669370048</v>
       </c>
       <c r="X40" t="n">
-        <v>786.8890373059935</v>
+        <v>1169.564807229732</v>
       </c>
       <c r="Y40" t="n">
-        <v>786.8890373059935</v>
+        <v>944.8291086184965</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1708.546389770622</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1298.421799083892</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>893.957869176953</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>479.6176536938497</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>669.8397601674739</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.856875555747</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1394.856875555747</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2038.487731972852</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>2929.36208237686</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>2920.347640318069</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2519.704242487022</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2118.767569435112</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1561.703728412895</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>1427.70865716184</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>1310.811499381233</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>1190.318683373561</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>1081.358803556065</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>974.3686908704041</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>903.6214779061202</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>882.8728865263604</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>882.8728865263604</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M42" t="n">
-        <v>1500.387876442693</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N42" t="n">
-        <v>2225.404991830966</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>2929.36208237686</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2821.372072491169</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>2662.030208678177</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>2464.679397816396</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>2250.96787080943</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>2037.734702545758</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1861.408720684651</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>1702.006761048481</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1727.848664295449</v>
+        <v>232.5161494941832</v>
       </c>
       <c r="C43" t="n">
-        <v>1556.755291857165</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>1556.755291857165</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>1556.755291857165</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>1556.755291857165</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1556.755291857165</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1407.147836662622</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>2844.08936405226</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>2657.69759593217</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>2657.69759593217</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>2657.69759593217</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V43" t="n">
-        <v>2657.69759593217</v>
+        <v>1162.365081130905</v>
       </c>
       <c r="W43" t="n">
-        <v>2378.627931441045</v>
+        <v>883.2954166397794</v>
       </c>
       <c r="X43" t="n">
-        <v>2140.284069300728</v>
+        <v>644.9515544994629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1915.548370689493</v>
+        <v>420.2158558882276</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1708.546389770622</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1298.421799083892</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>893.957869176953</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>479.6176536938497</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U44" t="n">
-        <v>2929.36208237686</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V44" t="n">
-        <v>2929.36208237686</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W44" t="n">
-        <v>2920.347640318069</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2519.704242487022</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2118.767569435112</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1561.703728412895</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>1427.70865716184</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>1310.811499381233</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>1190.318683373561</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>1081.358803556065</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>974.3686908704041</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>903.6214779061202</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>882.8728865263604</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>1150.54341175871</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1875.560527146982</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1875.560527146982</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>2579.517617692877</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2579.517617692877</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2929.36208237686</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2821.372072491169</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>2662.030208678177</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>2464.679397816396</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>2250.96787080943</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>2037.734702545758</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1861.408720684651</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>1702.006761048481</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>486.6784496406314</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C46" t="n">
-        <v>486.6784496406314</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D46" t="n">
-        <v>486.6784496406314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>486.6784496406314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>486.6784496406314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>319.4280585661747</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8206033716314</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1502.713419943787</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1502.713419943787</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>1502.713419943787</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>1228.827674883309</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W46" t="n">
-        <v>949.7580103921832</v>
+        <v>789.1102959217815</v>
       </c>
       <c r="X46" t="n">
-        <v>711.4141482518667</v>
+        <v>550.7664337814649</v>
       </c>
       <c r="Y46" t="n">
-        <v>486.6784496406314</v>
+        <v>326.0307351702296</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>445.2294075862321</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8058,25 +8060,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>557.0846165901667</v>
       </c>
       <c r="M3" t="n">
-        <v>743.5567912259809</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8216,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>269.9369070685581</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>528.6762761514423</v>
       </c>
       <c r="N6" t="n">
-        <v>785.533913987965</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>364.7817130488874</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>347.5644824754977</v>
+        <v>594.9070054778498</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,19 +8534,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>178.5117997957785</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8687,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>491.5266125441051</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,7 +8710,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,13 +8777,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>676.9459084607529</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>319.7457288112504</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9951,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9966,7 +9968,7 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10194,16 +10196,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>389.300405673794</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10662,7 +10664,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>55.82578278461539</v>
@@ -10674,19 +10676,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
-        <v>334.2421074116683</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>70.76403821083073</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>712.9121844466192</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11139,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M42" t="n">
-        <v>681.3167988054198</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11381,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>326.488791722313</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>185.4459133542373</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>134.9699070214185</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.82025169067602</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23738,16 +23740,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>32.28731256679839</v>
       </c>
       <c r="G17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>36.96219916857069</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23940,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>86.1152248083673</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>96.14494677818607</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>178.2755692717851</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>54.06597461814499</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>123.5426002680144</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>134.6847134965114</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>60.459677367824</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.88054861921404</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>45.84716204233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24844,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.8515039573902</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -24901,7 +24903,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24968,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>12.96711254719648</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>10.65670172208908</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>39.2246399037231</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>161.546343101337</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25375,7 +25377,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V38" t="n">
-        <v>222.4997066824607</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>128.4376594995931</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -25603,19 +25605,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>148.1123732955583</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>370.9984002179802</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>31.50271142837587</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -25801,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>108.0697810391717</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>370.9984002179802</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>113.2632404556123</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26035,13 +26037,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>5.061557329863874</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>727996.289262092</v>
+        <v>726339.3918547092</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>727996.289262092</v>
+        <v>726339.3918547092</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>727996.289262092</v>
+        <v>730698.0533805483</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>501336.2976836464</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>501336.2976836464</v>
+        <v>651954.3143841254</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841252</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>501336.2976836466</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>501336.2976836467</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="D2" t="n">
         <v>423494.221884388</v>
       </c>
       <c r="E2" t="n">
-        <v>289558.7723153068</v>
+        <v>376543.267795622</v>
       </c>
       <c r="F2" t="n">
-        <v>289558.7723153067</v>
+        <v>376543.267795622</v>
       </c>
       <c r="G2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="H2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="I2" t="n">
         <v>376543.2677956219</v>
       </c>
-      <c r="I2" t="n">
-        <v>376543.2677956218</v>
-      </c>
       <c r="J2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956219</v>
       </c>
       <c r="K2" t="n">
         <v>376543.2677956219</v>
       </c>
       <c r="L2" t="n">
+        <v>376543.2677956219</v>
+      </c>
+      <c r="M2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="M2" t="n">
-        <v>376543.2677956218</v>
-      </c>
       <c r="N2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="O2" t="n">
+        <v>376543.267795622</v>
+      </c>
+      <c r="P2" t="n">
         <v>376543.2677956219</v>
-      </c>
-      <c r="O2" t="n">
-        <v>289558.7723153068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>289558.7723153068</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129456.2246430208</v>
+        <v>164775.233720096</v>
       </c>
       <c r="C4" t="n">
-        <v>129456.2246430208</v>
+        <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>129456.2246430208</v>
+        <v>71864.46850972367</v>
       </c>
       <c r="E4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="F4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="G4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="P4" t="n">
-        <v>11847.07869616807</v>
+        <v>15465.37373706398</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-29540.05869385616</v>
+        <v>18394.41319268042</v>
       </c>
       <c r="C6" t="n">
-        <v>215884.093589239</v>
+        <v>193349.9230857944</v>
       </c>
       <c r="D6" t="n">
-        <v>215884.0935892389</v>
+        <v>80801.21310939555</v>
       </c>
       <c r="E6" t="n">
-        <v>233185.3899670104</v>
+        <v>263243.7296327505</v>
       </c>
       <c r="F6" t="n">
-        <v>233185.3899670104</v>
+        <v>290212.6838136847</v>
       </c>
       <c r="G6" t="n">
-        <v>171477.4993815707</v>
+        <v>290212.6838136846</v>
       </c>
       <c r="H6" t="n">
-        <v>290212.6838136846</v>
+        <v>290212.6838136848</v>
       </c>
       <c r="I6" t="n">
-        <v>290212.6838136845</v>
+        <v>290212.6838136847</v>
       </c>
       <c r="J6" t="n">
-        <v>98600.18064333189</v>
+        <v>153617.8830077896</v>
       </c>
       <c r="K6" t="n">
         <v>290212.6838136846</v>
       </c>
       <c r="L6" t="n">
-        <v>290212.6838136847</v>
+        <v>150213.3729489319</v>
       </c>
       <c r="M6" t="n">
-        <v>290212.6838136846</v>
+        <v>267703.4190396373</v>
       </c>
       <c r="N6" t="n">
         <v>290212.6838136847</v>
       </c>
       <c r="O6" t="n">
-        <v>233185.3899670104</v>
+        <v>290212.6838136847</v>
       </c>
       <c r="P6" t="n">
-        <v>233185.3899670104</v>
+        <v>290212.6838136846</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.6364825675244</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>121.1339159452129</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27549,7 +27551,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27585,10 +27587,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>136.5105265353627</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>316.8324617037573</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>80.53347111747121</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>62.25267182945183</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>7.466825657058109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,7 +27909,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>131.3039423801138</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28017,7 +28019,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>145.3090724911967</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.35263051300481</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>351.5800443053479</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>500.9700927793176</v>
       </c>
       <c r="M3" t="n">
-        <v>685.9925074875634</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>180.8005173953409</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>471.1119924130248</v>
       </c>
       <c r="N6" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>307.0302340488873</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>253.9151191946135</v>
+        <v>501.2576421969656</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>398.2363880870597</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,7 +35430,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>263.919946026635</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36688,7 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>333.1858818629449</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
-        <v>279.9824724088646</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>13.19975447241331</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>617.4267863837744</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M42" t="n">
-        <v>623.7525150670024</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>270.374267911464</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767312.48645697</v>
+        <v>1765999.84100139</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029743</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7757340.085160553</v>
+        <v>7757340.085160552</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>279.2853746626571</v>
+        <v>361.4105835714914</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>217.6717020922056</v>
       </c>
       <c r="X4" t="n">
-        <v>227.0672929610288</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -907,16 +907,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>255.1443680669574</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>299.3892267387119</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>7.403252162746612</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1147,10 +1147,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>123.1859444429712</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>54.68688746169084</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059086</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>84.73179601342665</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>158.3449400448986</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>122.1857609060769</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28.01490760909618</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1590,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>207.9900286420065</v>
       </c>
     </row>
     <row r="17">
@@ -1852,10 +1852,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -1903,13 +1903,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2013,16 +2013,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>128.6156879951413</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>58.39437540446804</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>104.7418320842971</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>58.8776823612798</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>374.7552726386488</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>292.2732044987391</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
@@ -2487,16 +2487,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>113.6106513650505</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>103.2794232765807</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2563,19 +2563,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>101.6409518870421</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>108.9227613460767</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>156.2218231896911</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>36.45020302297358</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3037,10 +3037,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>228.8258688538636</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>30.17531756718498</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>228.8258688538636</v>
       </c>
       <c r="G35" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.438471529177691</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -3474,25 +3474,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>55.83588793181732</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,19 +3663,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>21.41323588437451</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>128.166594550656</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U41" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>137.8797272855248</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>240.6566774497255</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>402.9401476073396</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.55946887449164</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>448.2851735274151</v>
+        <v>1252.968975398866</v>
       </c>
       <c r="C2" t="n">
-        <v>442.2009868810892</v>
+        <v>1246.884788752541</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1688317915616</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1014.011766457887</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.854701124212</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4372,10 +4372,10 @@
         <v>1259.149751022952</v>
       </c>
       <c r="X2" t="n">
-        <v>858.5063531919045</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="Y2" t="n">
-        <v>858.5063531919045</v>
+        <v>1259.149751022952</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>537.7254774811266</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="M3" t="n">
-        <v>537.7254774811266</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1054.568412147452</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>700.5143089511126</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>529.4209365128291</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>495.8616862216745</v>
+        <v>1351.293576096709</v>
       </c>
       <c r="X4" t="n">
-        <v>266.5007842408373</v>
+        <v>1112.949713956392</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>888.214015345157</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>974.6830684215697</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C5" t="n">
-        <v>968.5988817752439</v>
+        <v>327.2000148507626</v>
       </c>
       <c r="D5" t="n">
-        <v>968.1753559087084</v>
+        <v>326.7764889842272</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>316.476677541528</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>299.4866695356196</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1785.840921137969</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.840921137969</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y5" t="n">
-        <v>1384.904248086059</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4655,10 +4655,10 @@
         <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>508.1659581184966</v>
+        <v>508.1659581184962</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784822</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="O6" t="n">
         <v>1541.851827451147</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1541.803011918786</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1355.411243798696</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1115.862504775398</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>833.0643573215223</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>559.1786122610442</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>280.1089477699186</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960205</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.056920380548</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>1820.932329693819</v>
+        <v>1330.81452560638</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.468399786879</v>
+        <v>1323.336493118757</v>
       </c>
       <c r="E8" t="n">
-        <v>1002.128184303776</v>
+        <v>908.9962776356538</v>
       </c>
       <c r="F8" t="n">
-        <v>581.0977722574635</v>
+        <v>487.9658655893414</v>
       </c>
       <c r="G8" t="n">
-        <v>172.3694881502956</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4822,34 +4822,34 @@
         <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678873</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368438</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368438</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>4176.456026456346</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>3826.618471792827</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>3442.858170927995</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>3042.214773096948</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.278100045038</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>541.8239817326674</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>1202.912153651956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>1202.912153651956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1202.912153651956</v>
+        <v>516.9994735994608</v>
       </c>
       <c r="O9" t="n">
-        <v>1570.801028829339</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1782.662456633885</v>
       </c>
       <c r="Q9" t="n">
         <v>2132.506921317869</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736876</v>
+        <v>909.3980746782881</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736876</v>
+        <v>738.3047022400046</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736876</v>
+        <v>578.8100575629146</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736876</v>
+        <v>417.8992424312341</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736876</v>
+        <v>253.2681165418253</v>
       </c>
       <c r="G10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147512</v>
+        <v>1560.177341823884</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736876</v>
+        <v>1321.833479683568</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736876</v>
+        <v>1097.097781072333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>178.8313704314578</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4182.917908737509</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="V11" t="n">
-        <v>3833.080354073989</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W11" t="n">
-        <v>3449.320053209158</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X11" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y11" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>286.056555253256</v>
+        <v>735.0499203580262</v>
       </c>
       <c r="M12" t="n">
-        <v>1129.033635947823</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N12" t="n">
-        <v>2002.69172805944</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.7454763291312</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="C13" t="n">
-        <v>554.7454763291312</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="D13" t="n">
-        <v>554.7454763291312</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E13" t="n">
-        <v>554.7454763291312</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W13" t="n">
-        <v>554.7454763291312</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X13" t="n">
-        <v>554.7454763291312</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y13" t="n">
-        <v>554.7454763291312</v>
+        <v>548.5451751656769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D14" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G16" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>1105.229067680031</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
         <v>899.2322418529996</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5551,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2884921858141</v>
+        <v>529.9952033950672</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1951197475306</v>
+        <v>529.9952033950672</v>
       </c>
       <c r="D19" t="n">
-        <v>548.7004750704407</v>
+        <v>370.5005587179772</v>
       </c>
       <c r="E19" t="n">
-        <v>387.7896599387602</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F19" t="n">
-        <v>223.1585340493514</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1478.385658406602</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1238.836919383304</v>
       </c>
       <c r="U19" t="n">
-        <v>1383.093855288175</v>
+        <v>956.0387719294281</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.093855288175</v>
+        <v>956.0387719294281</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.024190797049</v>
+        <v>956.0387719294281</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.024190797049</v>
+        <v>717.6949097891115</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2884921858141</v>
+        <v>717.6949097891115</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3303.879360348573</v>
+        <v>640.9315149955648</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>535.131684607386</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4602.712478105605</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>4319.914330651729</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>4046.028585591251</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W22" t="n">
-        <v>3766.958921100125</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="X22" t="n">
-        <v>3528.615058959808</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="Y22" t="n">
-        <v>3303.879360348573</v>
+        <v>828.6312213896092</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F23" t="n">
         <v>899.2322418529996</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4439.978400477999</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4051.026465773143</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C25" t="n">
-        <v>4051.026465773143</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D25" t="n">
-        <v>3891.531821096053</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4275.762164384378</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>4275.762164384378</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>4275.762164384378</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W25" t="n">
-        <v>4275.762164384378</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X25" t="n">
-        <v>4275.762164384378</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y25" t="n">
-        <v>4051.026465773143</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>2002.69172805944</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3679.560484873397</v>
+        <v>540.1777607016702</v>
       </c>
       <c r="C28" t="n">
-        <v>3569.537493614734</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="D28" t="n">
-        <v>3410.042848937644</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4475.79311641105</v>
+        <v>1464.842772907745</v>
       </c>
       <c r="T28" t="n">
-        <v>4236.244377387751</v>
+        <v>1464.842772907745</v>
       </c>
       <c r="U28" t="n">
-        <v>3953.446229933875</v>
+        <v>1464.842772907745</v>
       </c>
       <c r="V28" t="n">
-        <v>3679.560484873397</v>
+        <v>1190.957027847267</v>
       </c>
       <c r="W28" t="n">
-        <v>3679.560484873397</v>
+        <v>1190.957027847267</v>
       </c>
       <c r="X28" t="n">
-        <v>3679.560484873397</v>
+        <v>952.6131657069499</v>
       </c>
       <c r="Y28" t="n">
-        <v>3679.560484873397</v>
+        <v>727.8774670957146</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
         <v>1320.262653899312</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>460.6501016978888</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>289.5567292596053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>130.0620845825153</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U31" t="n">
-        <v>1111.429368843485</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V31" t="n">
-        <v>1111.429368843485</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.429368843485</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X31" t="n">
-        <v>873.0855067031684</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y31" t="n">
-        <v>648.3498080919331</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E32" t="n">
-        <v>899.2322418529996</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F32" t="n">
         <v>899.2322418529996</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1506.88975723214</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1267.341018208842</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>984.5428707549665</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.680646442718</v>
+        <v>710.6571256944885</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>431.5874612033629</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>431.5874612033629</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F35" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3738.536254057871</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="C37" t="n">
-        <v>3567.442881619587</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="D37" t="n">
-        <v>3567.442881619587</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E37" t="n">
-        <v>3567.442881619587</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1480.969989187057</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1480.969989187057</v>
       </c>
       <c r="U37" t="n">
-        <v>4150.971659063151</v>
+        <v>1198.171841733181</v>
       </c>
       <c r="V37" t="n">
-        <v>4150.971659063151</v>
+        <v>924.2860966727033</v>
       </c>
       <c r="W37" t="n">
-        <v>4150.971659063151</v>
+        <v>924.2860966727033</v>
       </c>
       <c r="X37" t="n">
-        <v>4150.971659063151</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="Y37" t="n">
-        <v>3926.235960451915</v>
+        <v>685.9422345323867</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>757.1294022244522</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C40" t="n">
-        <v>586.0360297861687</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.369875986873</v>
+        <v>1515.740344790535</v>
       </c>
       <c r="T40" t="n">
-        <v>1537.369875986873</v>
+        <v>1276.191605767237</v>
       </c>
       <c r="U40" t="n">
-        <v>1537.369875986873</v>
+        <v>993.393458313361</v>
       </c>
       <c r="V40" t="n">
-        <v>1537.369875986873</v>
+        <v>719.5077132528828</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.908669370048</v>
+        <v>440.4380487617572</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.564807229732</v>
+        <v>440.4380487617572</v>
       </c>
       <c r="Y40" t="n">
-        <v>944.8291086184965</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>232.5161494941832</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C43" t="n">
-        <v>93.2436976906228</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>93.2436976906228</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U43" t="n">
-        <v>1436.250826191383</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V43" t="n">
-        <v>1162.365081130905</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W43" t="n">
-        <v>883.2954166397794</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="X43" t="n">
-        <v>644.9515544994629</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.2158558882276</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.590496051882</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>4144.752941388363</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="45">
@@ -7736,19 +7736,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S46" t="n">
-        <v>1350.978107866783</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T46" t="n">
-        <v>1350.978107866783</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U46" t="n">
-        <v>1068.179960412907</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V46" t="n">
-        <v>1068.179960412907</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W46" t="n">
-        <v>789.1102959217815</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X46" t="n">
-        <v>550.7664337814649</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y46" t="n">
-        <v>326.0307351702296</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>549.1401736751965</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>228.5110173896169</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8063,13 +8063,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>557.0846165901667</v>
+        <v>173.8482690683347</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>224.7351163062146</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>269.754811036119</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>528.6762761514423</v>
+        <v>528.6762761514418</v>
       </c>
       <c r="N6" t="n">
         <v>575.2569637637755</v>
@@ -8470,13 +8470,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>594.9070054778498</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170752</v>
       </c>
       <c r="O9" t="n">
-        <v>429.3564034215989</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>704.403637616307</v>
       </c>
       <c r="M12" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8932,7 +8932,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8947,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,16 +9020,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10907,7 +10907,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10919,13 +10919,13 @@
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>445.1055394667395</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>384.4175102257753</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>348.1042600436691</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>463.04128249545</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>223.0676163851325</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>96.14494677818635</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>63.63694842402701</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>134.9699070214185</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>115.1825854367171</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>14.49831298311645</v>
       </c>
     </row>
     <row r="17">
@@ -23740,10 +23740,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>96.14494677818681</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>36.96219916857069</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>126.1334750344208</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>64.64060662960358</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -24147,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>178.2755692717851</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>25.66401796922128</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>54.06597461814499</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>123.5426002680144</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>172.9995445696337</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.459677367824</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -24651,13 +24651,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>28.30602724919774</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>122.8515039573902</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25089,7 +25089,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.1113806425979</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>154.3525328717039</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>187.9942390719857</v>
       </c>
       <c r="G35" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>161.546343101337</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>128.6919625070715</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>163.1146145545143</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>148.1123732955583</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U41" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>31.50271142837587</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>35.62229039648884</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.2632404556123</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651954.3143841253</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651954.3143841253</v>
+        <v>651954.3143841254</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651954.3143841253</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651954.3143841252</v>
+        <v>651954.3143841254</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651954.3143841254</v>
+        <v>651954.3143841255</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651954.3143841255</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651954.3143841255</v>
+        <v>651954.3143841253</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651954.3143841255</v>
+        <v>651954.3143841254</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651954.3143841255</v>
+        <v>651954.3143841254</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.2218843881</v>
+        <v>423494.221884388</v>
       </c>
       <c r="C2" t="n">
         <v>423494.2218843881</v>
@@ -26322,28 +26322,28 @@
         <v>423494.221884388</v>
       </c>
       <c r="E2" t="n">
+        <v>376543.2677956221</v>
+      </c>
+      <c r="F2" t="n">
+        <v>376543.2677956219</v>
+      </c>
+      <c r="G2" t="n">
+        <v>376543.2677956218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>376543.2677956219</v>
+      </c>
+      <c r="I2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>376543.267795622</v>
       </c>
-      <c r="G2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="H2" t="n">
-        <v>376543.2677956221</v>
-      </c>
-      <c r="I2" t="n">
-        <v>376543.2677956219</v>
-      </c>
-      <c r="J2" t="n">
-        <v>376543.2677956219</v>
-      </c>
       <c r="K2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.267795622</v>
       </c>
       <c r="L2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.267795622</v>
       </c>
       <c r="M2" t="n">
         <v>376543.267795622</v>
@@ -26352,10 +26352,10 @@
         <v>376543.267795622</v>
       </c>
       <c r="O2" t="n">
-        <v>376543.267795622</v>
+        <v>376543.2677956218</v>
       </c>
       <c r="P2" t="n">
-        <v>376543.2677956219</v>
+        <v>376543.2677956218</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164775.233720096</v>
+        <v>164775.2337200961</v>
       </c>
       <c r="C4" t="n">
         <v>164775.2337200961</v>
       </c>
       <c r="D4" t="n">
-        <v>71864.46850972367</v>
+        <v>71864.46850972369</v>
       </c>
       <c r="E4" t="n">
         <v>15465.37373706398</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18394.41319268042</v>
+        <v>18394.4131926803</v>
       </c>
       <c r="C6" t="n">
         <v>193349.9230857944</v>
       </c>
       <c r="D6" t="n">
-        <v>80801.21310939555</v>
+        <v>80801.21310939552</v>
       </c>
       <c r="E6" t="n">
-        <v>263243.7296327505</v>
+        <v>263063.1490401014</v>
       </c>
       <c r="F6" t="n">
-        <v>290212.6838136847</v>
+        <v>290032.1032210356</v>
       </c>
       <c r="G6" t="n">
-        <v>290212.6838136846</v>
+        <v>290032.1032210354</v>
       </c>
       <c r="H6" t="n">
-        <v>290212.6838136848</v>
+        <v>290032.1032210356</v>
       </c>
       <c r="I6" t="n">
-        <v>290212.6838136847</v>
+        <v>290032.1032210356</v>
       </c>
       <c r="J6" t="n">
-        <v>153617.8830077896</v>
+        <v>153437.3024151406</v>
       </c>
       <c r="K6" t="n">
-        <v>290212.6838136846</v>
+        <v>290032.1032210356</v>
       </c>
       <c r="L6" t="n">
-        <v>150213.3729489319</v>
+        <v>150032.7923562829</v>
       </c>
       <c r="M6" t="n">
-        <v>267703.4190396373</v>
+        <v>267522.8384469882</v>
       </c>
       <c r="N6" t="n">
-        <v>290212.6838136847</v>
+        <v>290032.1032210356</v>
       </c>
       <c r="O6" t="n">
-        <v>290212.6838136847</v>
+        <v>290032.1032210354</v>
       </c>
       <c r="P6" t="n">
-        <v>290212.6838136846</v>
+        <v>290032.1032210354</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>121.1339159452129</v>
+        <v>39.00870703637867</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27590,19 +27590,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>58.60726575400878</v>
       </c>
       <c r="X4" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>149.4966331991388</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>80.53347111747121</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>393.0160384451234</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>131.3039423801138</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>221.5920803845235</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300481</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>500.9700927793176</v>
+        <v>117.7337452574857</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>471.1119924130248</v>
+        <v>471.1119924130244</v>
       </c>
       <c r="N6" t="n">
         <v>522.0635703700256</v>
@@ -35190,13 +35190,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>501.2576421969656</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>435.3350991233252</v>
       </c>
       <c r="O9" t="n">
-        <v>371.6049244215989</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>648.289113805458</v>
       </c>
       <c r="M12" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35667,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37627,7 +37627,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>390.8459044639358</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>328.3029864149263</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
